--- a/data/mlb_weather_stadiums.xlsx
+++ b/data/mlb_weather_stadiums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean_\MLBStats\WinBets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F71C2-BACE-4B1D-B346-96FE4B08958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6589A52E-E9CF-4EF8-A345-EE47DFDD28C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>StadiumID</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -811,23 +817,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +859,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -879,7 +885,7 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -905,7 +911,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -931,7 +937,7 @@
         <v>44.06</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -957,7 +963,7 @@
         <v>126.38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,7 +989,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>46.65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2700</v>
       </c>
@@ -1051,7 +1057,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2701</v>
       </c>
@@ -1063,7 +1069,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1084,7 +1090,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1103,9 +1109,14 @@
       <c r="F12">
         <v>-112.066687</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1124,9 +1135,14 @@
       <c r="F13">
         <v>-87.655502999999996</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="2">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1147,7 +1163,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4629</v>
       </c>
@@ -1168,7 +1184,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1189,7 +1205,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4249</v>
       </c>
@@ -1210,7 +1226,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31</v>
       </c>
@@ -1231,7 +1247,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32</v>
       </c>
@@ -1252,7 +1268,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2856</v>
       </c>
@@ -1273,7 +1289,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>680</v>
       </c>
@@ -1294,7 +1310,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2602</v>
       </c>
@@ -1315,7 +1331,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2603</v>
       </c>
@@ -1336,7 +1352,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2862</v>
       </c>
@@ -1357,7 +1373,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2735</v>
       </c>
@@ -1378,7 +1394,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -1399,7 +1415,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4169</v>
       </c>
@@ -1420,7 +1436,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2889</v>
       </c>
@@ -1441,7 +1457,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2507</v>
       </c>
@@ -1462,7 +1478,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2508</v>
       </c>
@@ -1483,7 +1499,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5325</v>
       </c>
@@ -1504,7 +1520,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2766</v>
       </c>
@@ -1525,7 +1541,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2511</v>
       </c>
@@ -1546,7 +1562,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4309</v>
       </c>
@@ -1567,7 +1583,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2518</v>
       </c>
@@ -1588,7 +1604,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2392</v>
       </c>
@@ -1609,7 +1625,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2520</v>
       </c>
@@ -1630,7 +1646,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3289</v>
       </c>
@@ -1651,7 +1667,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2394</v>
       </c>
@@ -1672,7 +1688,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2395</v>
       </c>
@@ -1693,7 +1709,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2523</v>
       </c>
@@ -1714,7 +1730,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2397</v>
       </c>
@@ -1732,7 +1748,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2526</v>
       </c>
@@ -1753,7 +1769,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4705</v>
       </c>
@@ -1774,7 +1790,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3809</v>
       </c>
@@ -1795,7 +1811,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2529</v>
       </c>
@@ -1816,7 +1832,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2530</v>
       </c>
@@ -1837,7 +1853,7 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2532</v>
       </c>
@@ -1858,7 +1874,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2534</v>
       </c>
@@ -1879,7 +1895,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2536</v>
       </c>
@@ -1900,7 +1916,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5355</v>
       </c>
@@ -1921,7 +1937,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3309</v>
       </c>
@@ -1942,7 +1958,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2542</v>
       </c>
@@ -1963,7 +1979,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3312</v>
       </c>
@@ -1984,7 +2000,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3313</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6130</v>
       </c>
@@ -2030,7 +2046,7 @@
         <v>-82.526899999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2680</v>
       </c>
@@ -2050,7 +2066,7 @@
         <v>-117.15727800000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2681</v>
       </c>
@@ -2070,7 +2086,7 @@
         <v>-75.167169569999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3834</v>
       </c>
